--- a/biology/Médecine/Hypopigmentation/Hypopigmentation.xlsx
+++ b/biology/Médecine/Hypopigmentation/Hypopigmentation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hypopigmentation est une diminution de la coloration habituelle de la peau. La couleur de la peau humaine dépend de la quantité et de la nature des mélanines contenues dans la peau, ainsi que de leur répartition, elles-mêmes influencées par différents facteurs comme l'hérédité ou l'exposition au soleil.
 </t>
@@ -511,9 +523,11 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Parmi les différentes causes possibles d'hypopigmentation cutanée on peut distinguer [1],[2]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Parmi les différentes causes possibles d'hypopigmentation cutanée on peut distinguer ,:
 Hypopigmentations héréditaires, génétiquement déterminées
 Hypopigmentations héréditaires diffuses
 Albinisme oculo-cutané : Albinisme oculo-cutané type I, Albinisme oculo-cutané de type II, Albinisme oculocutané de type III, Albinisme oculocutané de type IV
